--- a/data/trans_orig/P23_2_2015-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P23_2_2015-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89105EF1-2D20-4F5C-BCE3-EB9D628ECA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7E453D7-70B7-40A8-85E4-55153B09B12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C2F07CA6-E11B-4869-9BE4-8A919F8861E3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0847FD55-B196-4970-BE46-5A0A0B83C24E}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="242">
   <si>
     <t>Población según consumo de Hachís/Marihuana en 2015 (Tasa respuesta: 97,08%)</t>
   </si>
@@ -93,25 +93,25 @@
     <t>90,48%</t>
   </si>
   <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
   </si>
   <si>
     <t>96,44%</t>
   </si>
   <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>93,4%</t>
   </si>
   <si>
-    <t>89,52%</t>
+    <t>89,15%</t>
   </si>
   <si>
     <t>96,19%</t>
@@ -123,28 +123,28 @@
     <t>5,21%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
   </si>
   <si>
     <t>Sí fuma pero no diariamente</t>
@@ -153,10 +153,10 @@
     <t>2,8%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
   </si>
   <si>
     <t>1,43%</t>
@@ -165,7 +165,7 @@
     <t>0,41%</t>
   </si>
   <si>
-    <t>4,44%</t>
+    <t>4,15%</t>
   </si>
   <si>
     <t>Sí fuma diariamente</t>
@@ -174,523 +174,508 @@
     <t>1,51%</t>
   </si>
   <si>
-    <t>5,27%</t>
+    <t>5,47%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1189,7 +1174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7B4622-D6CE-4012-BEB3-2ECD1C0B5830}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEB4A11-53FA-4349-83A3-10A8E1560FBF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1627,22 +1612,22 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1774,10 +1759,10 @@
         <v>4018</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -1789,13 +1774,13 @@
         <v>2797</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -1804,13 +1789,13 @@
         <v>6815</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1825,13 +1810,13 @@
         <v>12890</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -1840,13 +1825,13 @@
         <v>2707</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -1855,10 +1840,10 @@
         <v>15596</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>88</v>
@@ -2049,10 +2034,10 @@
         <v>105</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M18" s="7">
         <v>53</v>
@@ -2061,13 +2046,13 @@
         <v>55971</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2082,13 +2067,13 @@
         <v>13461</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -2097,13 +2082,13 @@
         <v>3657</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -2115,10 +2100,10 @@
         <v>15</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,13 +2118,13 @@
         <v>22456</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -2148,13 +2133,13 @@
         <v>3810</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -2163,13 +2148,13 @@
         <v>26267</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,7 +2210,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2243,7 +2228,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2258,7 +2243,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2273,7 +2258,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,13 +2273,13 @@
         <v>648591</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H23" s="7">
         <v>667</v>
@@ -2303,13 +2288,13 @@
         <v>714512</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M23" s="7">
         <v>1265</v>
@@ -2318,13 +2303,13 @@
         <v>1363104</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,13 +2324,13 @@
         <v>29138</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -2354,13 +2339,13 @@
         <v>5860</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="M24" s="7">
         <v>32</v>
@@ -2369,13 +2354,13 @@
         <v>34998</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,13 +2375,13 @@
         <v>5499</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -2405,13 +2390,13 @@
         <v>5784</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -2420,13 +2405,13 @@
         <v>11283</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,13 +2426,13 @@
         <v>19731</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2456,13 +2441,13 @@
         <v>4683</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -2474,10 +2459,10 @@
         <v>13</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,7 +2518,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2596,13 +2581,13 @@
         <v>828190</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H29" s="7">
         <v>916</v>
@@ -2611,13 +2596,13 @@
         <v>995392</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="M29" s="7">
         <v>1741</v>
@@ -2626,13 +2611,13 @@
         <v>1823581</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,10 +2632,10 @@
         <v>40757</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>165</v>
@@ -2665,10 +2650,10 @@
         <v>166</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M30" s="7">
         <v>52</v>
@@ -2677,13 +2662,13 @@
         <v>54589</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,13 +2683,13 @@
         <v>28352</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -2713,10 +2698,10 @@
         <v>10215</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>175</v>
@@ -2731,10 +2716,10 @@
         <v>176</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,13 +2734,13 @@
         <v>23378</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -2764,13 +2749,13 @@
         <v>3821</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>92</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M32" s="7">
         <v>27</v>
@@ -2779,13 +2764,13 @@
         <v>27200</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,7 +2844,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2874,7 +2859,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2889,7 +2874,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2889,13 @@
         <v>3029955</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H35" s="7">
         <v>3141</v>
@@ -2919,13 +2904,13 @@
         <v>3341937</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M35" s="7">
         <v>6034</v>
@@ -2934,13 +2919,13 @@
         <v>6371891</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,13 +2940,13 @@
         <v>129005</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H36" s="7">
         <v>58</v>
@@ -2970,13 +2955,13 @@
         <v>57433</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M36" s="7">
         <v>176</v>
@@ -2985,13 +2970,13 @@
         <v>186437</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +2991,13 @@
         <v>54566</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="H37" s="7">
         <v>22</v>
@@ -3021,13 +3006,13 @@
         <v>22453</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>209</v>
+        <v>41</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M37" s="7">
         <v>75</v>
@@ -3036,13 +3021,13 @@
         <v>77019</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3042,13 @@
         <v>80200</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="H38" s="7">
         <v>15</v>
@@ -3072,13 +3057,13 @@
         <v>15872</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M38" s="7">
         <v>92</v>
@@ -3090,10 +3075,10 @@
         <v>40</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,7 +3134,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3170,7 +3155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F198D96-87E6-43E7-A314-71577D66E8E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D190398D-48FC-4255-8F93-5CA489161CDD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3187,7 +3172,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3294,10 +3279,10 @@
         <v>101982</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>51</v>
@@ -3309,10 +3294,10 @@
         <v>130733</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>51</v>
@@ -3324,10 +3309,10 @@
         <v>232715</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>51</v>
@@ -3351,7 +3336,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3366,7 +3351,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3381,7 +3366,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,7 +3387,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3417,7 +3402,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3432,7 +3417,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,7 +3438,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3468,7 +3453,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3483,7 +3468,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,7 +3489,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3519,7 +3504,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3534,7 +3519,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,10 +3587,10 @@
         <v>549823</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>51</v>
@@ -3617,10 +3602,10 @@
         <v>619967</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>51</v>
@@ -3632,10 +3617,10 @@
         <v>1169790</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>51</v>
@@ -3659,7 +3644,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3674,7 +3659,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3689,7 +3674,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,7 +3695,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3725,7 +3710,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3740,7 +3725,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,7 +3746,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3776,7 +3761,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3791,7 +3776,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,7 +3797,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3827,7 +3812,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3842,7 +3827,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,10 +3895,10 @@
         <v>1039248</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>51</v>
@@ -3925,10 +3910,10 @@
         <v>1060079</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>51</v>
@@ -3940,10 +3925,10 @@
         <v>2099327</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>51</v>
@@ -3982,7 +3967,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3997,7 +3982,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,7 +4018,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4048,7 +4033,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,7 +4069,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4099,7 +4084,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,7 +4120,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4150,7 +4135,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,7 +4191,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4218,10 +4203,10 @@
         <v>728772</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>51</v>
@@ -4233,10 +4218,10 @@
         <v>874371</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>51</v>
@@ -4248,10 +4233,10 @@
         <v>1603142</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>51</v>
@@ -4275,7 +4260,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4305,7 +4290,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,7 +4311,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4356,7 +4341,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,7 +4362,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4407,7 +4392,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,7 +4413,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4458,7 +4443,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,7 +4499,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4526,10 +4511,10 @@
         <v>965403</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>51</v>
@@ -4541,10 +4526,10 @@
         <v>1150432</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>51</v>
@@ -4556,10 +4541,10 @@
         <v>2115835</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>51</v>
@@ -4583,7 +4568,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4598,7 +4583,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -4613,7 +4598,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,7 +4619,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -4649,7 +4634,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -4664,7 +4649,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,7 +4670,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -4700,7 +4685,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -4715,7 +4700,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,7 +4721,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4751,7 +4736,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4766,7 +4751,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,10 +4819,10 @@
         <v>3385228</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>51</v>
@@ -4849,10 +4834,10 @@
         <v>3835581</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>51</v>
@@ -4864,10 +4849,10 @@
         <v>7220809</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>51</v>
@@ -4891,7 +4876,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -4906,7 +4891,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -4921,7 +4906,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,7 +4927,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4957,7 +4942,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -4972,7 +4957,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,7 +4978,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -5008,7 +4993,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -5023,7 +5008,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,7 +5029,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -5059,7 +5044,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -5074,7 +5059,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,7 +5115,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P23_2_2015-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P23_2_2015-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7E453D7-70B7-40A8-85E4-55153B09B12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F36B20E-200D-4C14-BEB3-4C7317F114D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0847FD55-B196-4970-BE46-5A0A0B83C24E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{08E11BBC-C3FA-4976-9926-406FB7E3E934}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="242">
   <si>
-    <t>Población según consumo de Hachís/Marihuana en 2015 (Tasa respuesta: 97,08%)</t>
+    <t>Población según consumo de Hachís/Marihuana en 2016 (Tasa respuesta: 97,08%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>994.0</t>
@@ -93,589 +93,589 @@
     <t>90,48%</t>
   </si>
   <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
   </si>
   <si>
     <t>96,44%</t>
   </si>
   <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>93,4%</t>
   </si>
   <si>
-    <t>89,15%</t>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>No fuma pero ha fumado</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>Sí fuma pero no diariamente</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>Sí fuma diariamente</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
   </si>
   <si>
     <t>96,19%</t>
   </si>
   <si>
-    <t>No fuma pero ha fumado</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>Sí fuma pero no diariamente</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>Sí fuma diariamente</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1174,7 +1174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEB4A11-53FA-4349-83A3-10A8E1560FBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A3E828-0A9E-4CC2-A773-3596B5805393}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1693,7 +1693,7 @@
         <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1708,13 +1708,13 @@
         <v>20728</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
@@ -1723,13 +1723,13 @@
         <v>11030</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>30</v>
@@ -1738,13 +1738,13 @@
         <v>31757</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1759,13 +1759,13 @@
         <v>4018</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>73</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1774,13 +1774,13 @@
         <v>2797</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -1789,13 +1789,13 @@
         <v>6815</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,13 +1810,13 @@
         <v>12890</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -1825,13 +1825,13 @@
         <v>2707</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -1840,13 +1840,13 @@
         <v>15596</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1902,7 +1902,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1950,7 +1950,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1965,13 +1965,13 @@
         <v>936764</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>923</v>
@@ -1980,13 +1980,13 @@
         <v>989477</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>1794</v>
@@ -1995,13 +1995,13 @@
         <v>1926241</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,13 +2016,13 @@
         <v>32370</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -2031,13 +2031,13 @@
         <v>23601</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M18" s="7">
         <v>53</v>
@@ -2046,13 +2046,13 @@
         <v>55971</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,13 +2067,13 @@
         <v>13461</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -2085,10 +2085,10 @@
         <v>53</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -2100,10 +2100,10 @@
         <v>15</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,13 +2118,13 @@
         <v>22456</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -2133,13 +2133,13 @@
         <v>3810</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -2148,13 +2148,13 @@
         <v>26267</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,7 +2210,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2228,7 +2228,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2243,7 +2243,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,13 +2273,13 @@
         <v>648591</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H23" s="7">
         <v>667</v>
@@ -2288,13 +2288,13 @@
         <v>714512</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M23" s="7">
         <v>1265</v>
@@ -2303,13 +2303,13 @@
         <v>1363104</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,13 +2324,13 @@
         <v>29138</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -2339,13 +2339,13 @@
         <v>5860</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M24" s="7">
         <v>32</v>
@@ -2354,13 +2354,13 @@
         <v>34998</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,7 +2375,7 @@
         <v>5499</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>140</v>
@@ -2393,10 +2393,10 @@
         <v>142</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -2408,10 +2408,10 @@
         <v>142</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,10 +2429,10 @@
         <v>146</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2441,13 +2441,13 @@
         <v>4683</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -2459,10 +2459,10 @@
         <v>13</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,7 +2518,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2536,7 +2536,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2551,7 +2551,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,13 +2581,13 @@
         <v>828190</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H29" s="7">
         <v>916</v>
@@ -2596,13 +2596,13 @@
         <v>995392</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M29" s="7">
         <v>1741</v>
@@ -2611,13 +2611,13 @@
         <v>1823581</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,13 +2632,13 @@
         <v>40757</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -2647,13 +2647,13 @@
         <v>13833</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M30" s="7">
         <v>52</v>
@@ -2665,10 +2665,10 @@
         <v>146</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,13 +2683,13 @@
         <v>28352</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -2698,13 +2698,13 @@
         <v>10215</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M31" s="7">
         <v>37</v>
@@ -2713,13 +2713,13 @@
         <v>38567</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,13 +2734,13 @@
         <v>23378</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -2749,13 +2749,13 @@
         <v>3821</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M32" s="7">
         <v>27</v>
@@ -2764,13 +2764,13 @@
         <v>27200</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,7 +2844,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2874,7 +2874,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,13 +2889,13 @@
         <v>3029955</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H35" s="7">
         <v>3141</v>
@@ -2904,13 +2904,13 @@
         <v>3341937</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M35" s="7">
         <v>6034</v>
@@ -2919,13 +2919,13 @@
         <v>6371891</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,13 +2940,13 @@
         <v>129005</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H36" s="7">
         <v>58</v>
@@ -2955,13 +2955,13 @@
         <v>57433</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="M36" s="7">
         <v>176</v>
@@ -2970,13 +2970,13 @@
         <v>186437</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2991,13 +2991,13 @@
         <v>54566</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="H37" s="7">
         <v>22</v>
@@ -3006,10 +3006,10 @@
         <v>22453</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>204</v>
@@ -3024,10 +3024,10 @@
         <v>205</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3042,13 @@
         <v>80200</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H38" s="7">
         <v>15</v>
@@ -3057,13 +3057,13 @@
         <v>15872</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>211</v>
+        <v>88</v>
       </c>
       <c r="M38" s="7">
         <v>92</v>
@@ -3075,10 +3075,10 @@
         <v>40</v>
       </c>
       <c r="P38" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,7 +3155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D190398D-48FC-4255-8F93-5CA489161CDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504C212D-9853-4FC7-8170-469014FEA525}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3883,7 +3883,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3952,7 +3952,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4003,7 +4003,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4054,7 +4054,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4260,7 +4260,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4846,7 +4846,7 @@
         <v>8743</v>
       </c>
       <c r="N34" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>215</v>
@@ -4876,7 +4876,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -4927,7 +4927,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -5029,7 +5029,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -5101,7 +5101,7 @@
         <v>8743</v>
       </c>
       <c r="N39" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>51</v>
